--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Generating Models 1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Generating Models 1.xlsx_with_dialog_acts.xlsx
@@ -1007,12 +1007,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1159,12 +1159,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1425,12 +1425,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
